--- a/Financials/Quarterly/ICABY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ICABY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE4DDC-CF13-4275-AA07-712F8BE38B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICABY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,65 +750,65 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75200</v>
+        <v>74800</v>
       </c>
       <c r="E8" s="3">
-        <v>79000</v>
+        <v>78600</v>
       </c>
       <c r="F8" s="3">
-        <v>82100</v>
+        <v>81700</v>
       </c>
       <c r="G8" s="3">
-        <v>89200</v>
+        <v>88700</v>
       </c>
       <c r="H8" s="3">
-        <v>90900</v>
+        <v>90400</v>
       </c>
       <c r="I8" s="3">
-        <v>96000</v>
+        <v>95600</v>
       </c>
       <c r="J8" s="3">
-        <v>97200</v>
+        <v>96800</v>
       </c>
       <c r="K8" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>81100</v>
+        <v>80700</v>
       </c>
       <c r="E9" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>69200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>68300</v>
+      </c>
+      <c r="H9" s="3">
         <v>66100</v>
       </c>
-      <c r="F9" s="3">
-        <v>69500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>68600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>66400</v>
-      </c>
       <c r="I9" s="3">
-        <v>74700</v>
+        <v>74300</v>
       </c>
       <c r="J9" s="3">
-        <v>77200</v>
+        <v>76800</v>
       </c>
       <c r="K9" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,25 +819,25 @@
         <v>12900</v>
       </c>
       <c r="F10" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G10" s="3">
         <v>20500</v>
       </c>
       <c r="H10" s="3">
-        <v>24500</v>
+        <v>24400</v>
       </c>
       <c r="I10" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="J10" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="K10" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,7 +919,7 @@
         <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -902,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,28 +945,28 @@
         <v>7500</v>
       </c>
       <c r="E15" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="F15" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="G15" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="H15" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="I15" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="J15" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="K15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,65 +976,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107500</v>
+        <v>107000</v>
       </c>
       <c r="E17" s="3">
-        <v>108800</v>
+        <v>108300</v>
       </c>
       <c r="F17" s="3">
-        <v>99900</v>
+        <v>99400</v>
       </c>
       <c r="G17" s="3">
-        <v>112100</v>
+        <v>111500</v>
       </c>
       <c r="H17" s="3">
-        <v>107900</v>
+        <v>107400</v>
       </c>
       <c r="I17" s="3">
-        <v>110700</v>
+        <v>110200</v>
       </c>
       <c r="J17" s="3">
-        <v>113500</v>
+        <v>113000</v>
       </c>
       <c r="K17" s="3">
         <v>120800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32300</v>
+        <v>-32200</v>
       </c>
       <c r="E18" s="3">
-        <v>-29800</v>
+        <v>-29700</v>
       </c>
       <c r="F18" s="3">
         <v>-17800</v>
       </c>
       <c r="G18" s="3">
-        <v>-22900</v>
+        <v>-22800</v>
       </c>
       <c r="H18" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="I18" s="3">
         <v>-14700</v>
       </c>
       <c r="J18" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="K18" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1047,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1041,12 +1076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12100</v>
+        <v>-12000</v>
       </c>
       <c r="E21" s="3">
         <v>-5500</v>
@@ -1070,12 +1105,12 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
@@ -1099,21 +1134,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32600</v>
+        <v>-32400</v>
       </c>
       <c r="E23" s="3">
-        <v>-28500</v>
+        <v>-28400</v>
       </c>
       <c r="F23" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="G23" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="H23" s="3">
         <v>-17300</v>
@@ -1128,7 +1163,7 @@
         <v>-15500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1192,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,27 +1221,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32500</v>
+        <v>-32300</v>
       </c>
       <c r="E26" s="3">
-        <v>-28400</v>
+        <v>-28200</v>
       </c>
       <c r="F26" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="G26" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="H26" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="I26" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J26" s="3">
         <v>-15500</v>
@@ -1215,27 +1250,27 @@
         <v>-14900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32500</v>
+        <v>-32300</v>
       </c>
       <c r="E27" s="3">
-        <v>-28400</v>
+        <v>-28200</v>
       </c>
       <c r="F27" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="G27" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="H27" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="I27" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J27" s="3">
         <v>-15500</v>
@@ -1244,7 +1279,7 @@
         <v>-14900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1389,27 +1424,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32500</v>
+        <v>-32300</v>
       </c>
       <c r="E33" s="3">
-        <v>-28400</v>
+        <v>-28200</v>
       </c>
       <c r="F33" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="G33" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="H33" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="I33" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J33" s="3">
         <v>-15500</v>
@@ -1418,7 +1453,7 @@
         <v>-14900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,27 +1482,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32500</v>
+        <v>-32300</v>
       </c>
       <c r="E35" s="3">
-        <v>-28400</v>
+        <v>-28200</v>
       </c>
       <c r="F35" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="G35" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="H35" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="I35" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J35" s="3">
         <v>-15500</v>
@@ -1476,12 +1511,12 @@
         <v>-14900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,15 +1571,15 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38200</v>
+        <v>38000</v>
       </c>
       <c r="E41" s="3">
-        <v>74800</v>
+        <v>74500</v>
       </c>
       <c r="F41" s="3">
         <v>5500</v>
@@ -1556,7 +1591,7 @@
         <v>2800</v>
       </c>
       <c r="I41" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J41" s="3">
         <v>2300</v>
@@ -1565,7 +1600,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1605,7 +1640,7 @@
         <v>5600</v>
       </c>
       <c r="F43" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G43" s="3">
         <v>6600</v>
@@ -1617,13 +1652,13 @@
         <v>8700</v>
       </c>
       <c r="J43" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="K43" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1687,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1701,7 @@
         <v>4500</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H45" s="3">
         <v>6300</v>
@@ -1681,36 +1716,36 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57600</v>
+        <v>57300</v>
       </c>
       <c r="E46" s="3">
-        <v>87100</v>
+        <v>86700</v>
       </c>
       <c r="F46" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="3">
-        <v>26900</v>
+        <v>26800</v>
       </c>
       <c r="H46" s="3">
         <v>16100</v>
       </c>
       <c r="I46" s="3">
-        <v>24800</v>
+        <v>24700</v>
       </c>
       <c r="J46" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="K46" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,36 +1774,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112600</v>
+        <v>112100</v>
       </c>
       <c r="E48" s="3">
-        <v>113800</v>
+        <v>113200</v>
       </c>
       <c r="F48" s="3">
+        <v>113300</v>
+      </c>
+      <c r="G48" s="3">
         <v>113900</v>
       </c>
-      <c r="G48" s="3">
-        <v>114400</v>
-      </c>
       <c r="H48" s="3">
-        <v>111700</v>
+        <v>111200</v>
       </c>
       <c r="I48" s="3">
-        <v>111800</v>
+        <v>111300</v>
       </c>
       <c r="J48" s="3">
-        <v>109800</v>
+        <v>109300</v>
       </c>
       <c r="K48" s="3">
         <v>114300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,28 +1811,28 @@
         <v>18500</v>
       </c>
       <c r="E49" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="F49" s="3">
-        <v>21400</v>
+        <v>21300</v>
       </c>
       <c r="G49" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="H49" s="3">
-        <v>20100</v>
+        <v>20000</v>
       </c>
       <c r="I49" s="3">
-        <v>20500</v>
+        <v>20400</v>
       </c>
       <c r="J49" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="K49" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,36 +1890,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44700</v>
+        <v>44400</v>
       </c>
       <c r="E52" s="3">
-        <v>43800</v>
+        <v>43600</v>
       </c>
       <c r="F52" s="3">
-        <v>46000</v>
+        <v>45800</v>
       </c>
       <c r="G52" s="3">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="H52" s="3">
-        <v>47600</v>
+        <v>47400</v>
       </c>
       <c r="I52" s="3">
-        <v>47500</v>
+        <v>47300</v>
       </c>
       <c r="J52" s="3">
-        <v>47600</v>
+        <v>47300</v>
       </c>
       <c r="K52" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,36 +1948,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233400</v>
+        <v>232300</v>
       </c>
       <c r="E54" s="3">
-        <v>264300</v>
+        <v>263000</v>
       </c>
       <c r="F54" s="3">
-        <v>199400</v>
+        <v>198500</v>
       </c>
       <c r="G54" s="3">
-        <v>208100</v>
+        <v>207100</v>
       </c>
       <c r="H54" s="3">
-        <v>195600</v>
+        <v>194700</v>
       </c>
       <c r="I54" s="3">
-        <v>204700</v>
+        <v>203700</v>
       </c>
       <c r="J54" s="3">
-        <v>204000</v>
+        <v>203000</v>
       </c>
       <c r="K54" s="3">
         <v>213600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +2003,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>6400</v>
       </c>
       <c r="G57" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
@@ -1997,102 +2032,102 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50600</v>
+        <v>50300</v>
       </c>
       <c r="E58" s="3">
-        <v>50600</v>
+        <v>50300</v>
       </c>
       <c r="F58" s="3">
-        <v>90200</v>
+        <v>89800</v>
       </c>
       <c r="G58" s="3">
-        <v>75500</v>
+        <v>75200</v>
       </c>
       <c r="H58" s="3">
-        <v>53100</v>
+        <v>52900</v>
       </c>
       <c r="I58" s="3">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="J58" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="K58" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47100</v>
+        <v>46900</v>
       </c>
       <c r="E59" s="3">
-        <v>51000</v>
+        <v>50700</v>
       </c>
       <c r="F59" s="3">
-        <v>54300</v>
+        <v>54100</v>
       </c>
       <c r="G59" s="3">
-        <v>58000</v>
+        <v>57700</v>
       </c>
       <c r="H59" s="3">
-        <v>50900</v>
+        <v>50600</v>
       </c>
       <c r="I59" s="3">
-        <v>53900</v>
+        <v>53600</v>
       </c>
       <c r="J59" s="3">
-        <v>48400</v>
+        <v>48200</v>
       </c>
       <c r="K59" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100000</v>
+        <v>99500</v>
       </c>
       <c r="E60" s="3">
-        <v>103700</v>
+        <v>103200</v>
       </c>
       <c r="F60" s="3">
-        <v>151000</v>
+        <v>150300</v>
       </c>
       <c r="G60" s="3">
-        <v>141100</v>
+        <v>140400</v>
       </c>
       <c r="H60" s="3">
-        <v>105300</v>
+        <v>104800</v>
       </c>
       <c r="I60" s="3">
-        <v>96500</v>
+        <v>96100</v>
       </c>
       <c r="J60" s="3">
-        <v>81000</v>
+        <v>80600</v>
       </c>
       <c r="K60" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="E61" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2113,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I62" s="3">
         <v>3300</v>
@@ -2142,7 +2177,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,36 +2264,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>115500</v>
+        <v>114900</v>
       </c>
       <c r="E66" s="3">
-        <v>119700</v>
+        <v>119100</v>
       </c>
       <c r="F66" s="3">
-        <v>152800</v>
+        <v>152100</v>
       </c>
       <c r="G66" s="3">
-        <v>143400</v>
+        <v>142700</v>
       </c>
       <c r="H66" s="3">
-        <v>108100</v>
+        <v>107600</v>
       </c>
       <c r="I66" s="3">
-        <v>99900</v>
+        <v>99400</v>
       </c>
       <c r="J66" s="3">
-        <v>84800</v>
+        <v>84400</v>
       </c>
       <c r="K66" s="3">
         <v>78900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,36 +2422,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-886600</v>
+        <v>-882400</v>
       </c>
       <c r="E72" s="3">
-        <v>-859900</v>
+        <v>-855800</v>
       </c>
       <c r="F72" s="3">
-        <v>-831500</v>
+        <v>-827600</v>
       </c>
       <c r="G72" s="3">
-        <v>-813400</v>
+        <v>-809600</v>
       </c>
       <c r="H72" s="3">
-        <v>-790700</v>
+        <v>-786900</v>
       </c>
       <c r="I72" s="3">
-        <v>-773400</v>
+        <v>-769700</v>
       </c>
       <c r="J72" s="3">
-        <v>-759100</v>
+        <v>-755500</v>
       </c>
       <c r="K72" s="3">
         <v>-743600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,36 +2538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>117900</v>
+        <v>117400</v>
       </c>
       <c r="E76" s="3">
-        <v>144600</v>
+        <v>143900</v>
       </c>
       <c r="F76" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="3">
-        <v>64700</v>
+        <v>64400</v>
       </c>
       <c r="H76" s="3">
-        <v>87500</v>
+        <v>87100</v>
       </c>
       <c r="I76" s="3">
-        <v>104800</v>
+        <v>104300</v>
       </c>
       <c r="J76" s="3">
-        <v>119200</v>
+        <v>118600</v>
       </c>
       <c r="K76" s="3">
         <v>134700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,27 +2630,27 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32500</v>
+        <v>-32300</v>
       </c>
       <c r="E81" s="3">
-        <v>-28400</v>
+        <v>-28200</v>
       </c>
       <c r="F81" s="3">
-        <v>-18100</v>
+        <v>-18000</v>
       </c>
       <c r="G81" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="H81" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="I81" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="J81" s="3">
         <v>-15500</v>
@@ -2624,7 +2659,7 @@
         <v>-14900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,36 +2672,36 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="E83" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="F83" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="G83" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="H83" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="I83" s="3">
-        <v>22000</v>
+        <v>21900</v>
       </c>
       <c r="J83" s="3">
-        <v>22300</v>
+        <v>22200</v>
       </c>
       <c r="K83" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,27 +2846,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21600</v>
+        <v>-21500</v>
       </c>
       <c r="E89" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="F89" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="G89" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="H89" s="3">
         <v>-2400</v>
       </c>
       <c r="I89" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="J89" s="3">
         <v>-3800</v>
@@ -2840,7 +2875,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,7 +2888,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2861,19 +2896,19 @@
         <v>-12000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13200</v>
+        <v>-10300</v>
       </c>
       <c r="F91" s="3">
-        <v>-24400</v>
+        <v>-12200</v>
       </c>
       <c r="G91" s="3">
-        <v>-76800</v>
+        <v>-16200</v>
       </c>
       <c r="H91" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="I91" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="J91" s="3">
         <v>-9800</v>
@@ -2882,7 +2917,7 @@
         <v>-13400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2948,28 +2983,28 @@
         <v>-12400</v>
       </c>
       <c r="E94" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="F94" s="3">
         <v>-7100</v>
       </c>
       <c r="G94" s="3">
-        <v>-27400</v>
+        <v>-27200</v>
       </c>
       <c r="H94" s="3">
-        <v>-20100</v>
+        <v>-20000</v>
       </c>
       <c r="I94" s="3">
-        <v>-22100</v>
+        <v>-22000</v>
       </c>
       <c r="J94" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="K94" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,27 +3133,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
-        <v>98200</v>
+        <v>97800</v>
       </c>
       <c r="F100" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="G100" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="H100" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="I100" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J100" s="3">
         <v>16600</v>
@@ -3127,7 +3162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3156,30 +3191,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34600</v>
+        <v>-34400</v>
       </c>
       <c r="E102" s="3">
-        <v>68900</v>
+        <v>68600</v>
       </c>
       <c r="F102" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G102" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H102" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="I102" s="3">
         <v>8200</v>
       </c>
       <c r="J102" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/Financials/Quarterly/ICABY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ICABY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE4DDC-CF13-4275-AA07-712F8BE38B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ICABY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ICABY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74800</v>
+        <v>73700</v>
       </c>
       <c r="E8" s="3">
-        <v>78600</v>
+        <v>74200</v>
       </c>
       <c r="F8" s="3">
-        <v>81700</v>
+        <v>75700</v>
       </c>
       <c r="G8" s="3">
-        <v>88700</v>
+        <v>79500</v>
       </c>
       <c r="H8" s="3">
-        <v>90400</v>
+        <v>82600</v>
       </c>
       <c r="I8" s="3">
+        <v>89700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>91400</v>
+      </c>
+      <c r="K8" s="3">
         <v>95600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>96800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>80700</v>
+        <v>70500</v>
       </c>
       <c r="E9" s="3">
-        <v>65800</v>
+        <v>68900</v>
       </c>
       <c r="F9" s="3">
-        <v>69200</v>
+        <v>81600</v>
       </c>
       <c r="G9" s="3">
-        <v>68300</v>
+        <v>66500</v>
       </c>
       <c r="H9" s="3">
-        <v>66100</v>
+        <v>69900</v>
       </c>
       <c r="I9" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K9" s="3">
         <v>74300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>76800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>85100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-5900</v>
       </c>
-      <c r="E10" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12500</v>
-      </c>
       <c r="G10" s="3">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="H10" s="3">
-        <v>24400</v>
+        <v>12700</v>
       </c>
       <c r="I10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K10" s="3">
         <v>21200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +840,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +871,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,25 +906,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-10600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -936,37 +941,49 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7500</v>
+        <v>5600</v>
       </c>
       <c r="E15" s="3">
-        <v>22300</v>
+        <v>8100</v>
       </c>
       <c r="F15" s="3">
-        <v>20200</v>
+        <v>7600</v>
       </c>
       <c r="G15" s="3">
-        <v>20700</v>
+        <v>22500</v>
       </c>
       <c r="H15" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I15" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K15" s="3">
         <v>14100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>14300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>107000</v>
+        <v>99100</v>
       </c>
       <c r="E17" s="3">
-        <v>108300</v>
+        <v>100600</v>
       </c>
       <c r="F17" s="3">
-        <v>99400</v>
+        <v>108200</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
+        <v>109500</v>
       </c>
       <c r="H17" s="3">
-        <v>107400</v>
+        <v>100500</v>
       </c>
       <c r="I17" s="3">
+        <v>112700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>108500</v>
+      </c>
+      <c r="K17" s="3">
         <v>110200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>113000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>120800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32200</v>
+        <v>-25500</v>
       </c>
       <c r="E18" s="3">
-        <v>-29700</v>
+        <v>-26400</v>
       </c>
       <c r="F18" s="3">
-        <v>-17800</v>
+        <v>-32500</v>
       </c>
       <c r="G18" s="3">
-        <v>-22800</v>
+        <v>-30000</v>
       </c>
       <c r="H18" s="3">
-        <v>-16900</v>
+        <v>-17900</v>
       </c>
       <c r="I18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1046,153 +1077,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12000</v>
+        <v>-5000</v>
       </c>
       <c r="E21" s="3">
-        <v>-5500</v>
+        <v>-4200</v>
       </c>
       <c r="F21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
+        <v>600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32400</v>
+        <v>-27000</v>
       </c>
       <c r="E23" s="3">
-        <v>-28400</v>
+        <v>-25800</v>
       </c>
       <c r="F23" s="3">
-        <v>-18300</v>
+        <v>-32800</v>
       </c>
       <c r="G23" s="3">
-        <v>-23200</v>
+        <v>-28700</v>
       </c>
       <c r="H23" s="3">
-        <v>-17300</v>
+        <v>-18500</v>
       </c>
       <c r="I23" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32300</v>
+        <v>-27000</v>
       </c>
       <c r="E26" s="3">
-        <v>-28200</v>
+        <v>-26000</v>
       </c>
       <c r="F26" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="G26" s="3">
-        <v>-22700</v>
+        <v>-28600</v>
       </c>
       <c r="H26" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="I26" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-14200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32300</v>
+        <v>-27000</v>
       </c>
       <c r="E27" s="3">
-        <v>-28200</v>
+        <v>-26000</v>
       </c>
       <c r="F27" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="G27" s="3">
-        <v>-22700</v>
+        <v>-28600</v>
       </c>
       <c r="H27" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="I27" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32300</v>
+        <v>-27000</v>
       </c>
       <c r="E33" s="3">
-        <v>-28200</v>
+        <v>-26000</v>
       </c>
       <c r="F33" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="G33" s="3">
-        <v>-22700</v>
+        <v>-28600</v>
       </c>
       <c r="H33" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="I33" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32300</v>
+        <v>-27000</v>
       </c>
       <c r="E35" s="3">
-        <v>-28200</v>
+        <v>-26000</v>
       </c>
       <c r="F35" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="G35" s="3">
-        <v>-22700</v>
+        <v>-28600</v>
       </c>
       <c r="H35" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="I35" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,37 +1707,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38000</v>
+        <v>87100</v>
       </c>
       <c r="E41" s="3">
-        <v>74500</v>
+        <v>22900</v>
       </c>
       <c r="F41" s="3">
-        <v>5500</v>
+        <v>38400</v>
       </c>
       <c r="G41" s="3">
-        <v>13500</v>
+        <v>75300</v>
       </c>
       <c r="H41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1628,124 +1773,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I43" s="3">
         <v>6600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>15500</v>
       </c>
       <c r="E45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6300</v>
-      </c>
       <c r="I45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57300</v>
+        <v>110300</v>
       </c>
       <c r="E46" s="3">
-        <v>86700</v>
+        <v>44100</v>
       </c>
       <c r="F46" s="3">
-        <v>18000</v>
+        <v>57900</v>
       </c>
       <c r="G46" s="3">
-        <v>26800</v>
+        <v>87700</v>
       </c>
       <c r="H46" s="3">
-        <v>16100</v>
+        <v>18200</v>
       </c>
       <c r="I46" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K46" s="3">
         <v>24700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1773,66 +1948,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112100</v>
+        <v>122900</v>
       </c>
       <c r="E48" s="3">
-        <v>113200</v>
+        <v>110600</v>
       </c>
       <c r="F48" s="3">
         <v>113300</v>
       </c>
       <c r="G48" s="3">
-        <v>113900</v>
+        <v>114500</v>
       </c>
       <c r="H48" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I48" s="3">
+        <v>115100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K48" s="3">
         <v>111300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>109300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>114300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18500</v>
+        <v>11700</v>
       </c>
       <c r="E49" s="3">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
-        <v>21300</v>
+        <v>18700</v>
       </c>
       <c r="G49" s="3">
-        <v>21800</v>
+        <v>19700</v>
       </c>
       <c r="H49" s="3">
-        <v>20000</v>
+        <v>21600</v>
       </c>
       <c r="I49" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K49" s="3">
         <v>20400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>22200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44400</v>
+        <v>46500</v>
       </c>
       <c r="E52" s="3">
-        <v>43600</v>
+        <v>46300</v>
       </c>
       <c r="F52" s="3">
-        <v>45800</v>
+        <v>44900</v>
       </c>
       <c r="G52" s="3">
-        <v>44600</v>
+        <v>44100</v>
       </c>
       <c r="H52" s="3">
-        <v>47400</v>
+        <v>46300</v>
       </c>
       <c r="I52" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K52" s="3">
         <v>47300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>47300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>232300</v>
+        <v>291400</v>
       </c>
       <c r="E54" s="3">
-        <v>263000</v>
+        <v>216100</v>
       </c>
       <c r="F54" s="3">
-        <v>198500</v>
+        <v>234800</v>
       </c>
       <c r="G54" s="3">
-        <v>207100</v>
+        <v>265900</v>
       </c>
       <c r="H54" s="3">
-        <v>194700</v>
+        <v>200700</v>
       </c>
       <c r="I54" s="3">
+        <v>209400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K54" s="3">
         <v>203700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>203000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>213600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,138 +2227,164 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7500</v>
-      </c>
       <c r="H57" s="3">
-        <v>1300</v>
+        <v>6500</v>
       </c>
       <c r="I57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50300</v>
+        <v>67700</v>
       </c>
       <c r="E58" s="3">
-        <v>50300</v>
+        <v>63800</v>
       </c>
       <c r="F58" s="3">
-        <v>89800</v>
+        <v>50900</v>
       </c>
       <c r="G58" s="3">
-        <v>75200</v>
+        <v>50900</v>
       </c>
       <c r="H58" s="3">
-        <v>52900</v>
+        <v>90800</v>
       </c>
       <c r="I58" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K58" s="3">
         <v>38200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>53600</v>
       </c>
       <c r="E59" s="3">
-        <v>50700</v>
+        <v>50000</v>
       </c>
       <c r="F59" s="3">
-        <v>54100</v>
+        <v>47400</v>
       </c>
       <c r="G59" s="3">
-        <v>57700</v>
+        <v>51300</v>
       </c>
       <c r="H59" s="3">
-        <v>50600</v>
+        <v>54700</v>
       </c>
       <c r="I59" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K59" s="3">
         <v>53600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>48200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>52700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>99500</v>
+        <v>125100</v>
       </c>
       <c r="E60" s="3">
-        <v>103200</v>
+        <v>120100</v>
       </c>
       <c r="F60" s="3">
-        <v>150300</v>
+        <v>100600</v>
       </c>
       <c r="G60" s="3">
-        <v>140400</v>
+        <v>104400</v>
       </c>
       <c r="H60" s="3">
-        <v>104800</v>
+        <v>151900</v>
       </c>
       <c r="I60" s="3">
+        <v>142000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K60" s="3">
         <v>96100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>80600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12700</v>
+        <v>56900</v>
       </c>
       <c r="E61" s="3">
-        <v>12700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2147,37 +2398,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>114900</v>
+        <v>184900</v>
       </c>
       <c r="E66" s="3">
-        <v>119100</v>
+        <v>122900</v>
       </c>
       <c r="F66" s="3">
-        <v>152100</v>
+        <v>116200</v>
       </c>
       <c r="G66" s="3">
-        <v>142700</v>
+        <v>120400</v>
       </c>
       <c r="H66" s="3">
-        <v>107600</v>
+        <v>153700</v>
       </c>
       <c r="I66" s="3">
+        <v>144300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>108800</v>
+      </c>
+      <c r="K66" s="3">
         <v>99400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>84400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>78900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-882400</v>
+        <v>-943800</v>
       </c>
       <c r="E72" s="3">
-        <v>-855800</v>
+        <v>-917400</v>
       </c>
       <c r="F72" s="3">
-        <v>-827600</v>
+        <v>-892100</v>
       </c>
       <c r="G72" s="3">
-        <v>-809600</v>
+        <v>-865200</v>
       </c>
       <c r="H72" s="3">
-        <v>-786900</v>
+        <v>-836600</v>
       </c>
       <c r="I72" s="3">
+        <v>-818500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-795500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-769700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-755500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-743600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>117400</v>
+        <v>106600</v>
       </c>
       <c r="E76" s="3">
-        <v>143900</v>
+        <v>93200</v>
       </c>
       <c r="F76" s="3">
-        <v>46400</v>
+        <v>118600</v>
       </c>
       <c r="G76" s="3">
-        <v>64400</v>
+        <v>145500</v>
       </c>
       <c r="H76" s="3">
-        <v>87100</v>
+        <v>46900</v>
       </c>
       <c r="I76" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K76" s="3">
         <v>104300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>118600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>134700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32300</v>
+        <v>-27000</v>
       </c>
       <c r="E81" s="3">
-        <v>-28200</v>
+        <v>-26000</v>
       </c>
       <c r="F81" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="G81" s="3">
-        <v>-22700</v>
+        <v>-28600</v>
       </c>
       <c r="H81" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="I81" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,37 +3032,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="E83" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="F83" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="G83" s="3">
-        <v>20700</v>
+        <v>22500</v>
       </c>
       <c r="H83" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="I83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K83" s="3">
         <v>21900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>22200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-21500</v>
+        <v>-6100</v>
       </c>
       <c r="E89" s="3">
-        <v>-12200</v>
+        <v>-2000</v>
       </c>
       <c r="F89" s="3">
-        <v>-14100</v>
+        <v>-21700</v>
       </c>
       <c r="G89" s="3">
-        <v>13800</v>
+        <v>-12300</v>
       </c>
       <c r="H89" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,37 +3292,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-8900</v>
       </c>
       <c r="E91" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
-        <v>-13500</v>
+        <v>-12300</v>
       </c>
       <c r="I91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12400</v>
+        <v>-11200</v>
       </c>
       <c r="E94" s="3">
-        <v>-17600</v>
+        <v>-12600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7100</v>
+        <v>-12500</v>
       </c>
       <c r="G94" s="3">
-        <v>-27200</v>
+        <v>-17800</v>
       </c>
       <c r="H94" s="3">
-        <v>-20000</v>
+        <v>-7200</v>
       </c>
       <c r="I94" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-18400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,8 +3447,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3045,8 +3478,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,37 +3583,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500</v>
+        <v>81500</v>
       </c>
       <c r="E100" s="3">
-        <v>97800</v>
+        <v>-1000</v>
       </c>
       <c r="F100" s="3">
-        <v>14600</v>
+        <v>-600</v>
       </c>
       <c r="G100" s="3">
-        <v>22300</v>
+        <v>99300</v>
       </c>
       <c r="H100" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="I100" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K100" s="3">
         <v>8900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>16600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3190,33 +3653,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34400</v>
+        <v>64200</v>
       </c>
       <c r="E102" s="3">
-        <v>68600</v>
+        <v>-15500</v>
       </c>
       <c r="F102" s="3">
-        <v>-7100</v>
+        <v>-34800</v>
       </c>
       <c r="G102" s="3">
-        <v>8100</v>
+        <v>69300</v>
       </c>
       <c r="H102" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="I102" s="3">
         <v>8200</v>
       </c>
       <c r="J102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
     </row>
